--- a/biology/Zoologie/Dentelle_de_Neptune/Dentelle_de_Neptune.xlsx
+++ b/biology/Zoologie/Dentelle_de_Neptune/Dentelle_de_Neptune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Reteporella grimaldii · Dentelle de Vénus
 La Dentelle de Neptune (Reteporella grimaldii), également appelée Dentelle de Vénus, est une espèce d’ectoproctes de la famille des Phidoloporidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les colonies ont souvent une forme typique en « dentelle » allant du jaune au rose, très fragiles et mesurant jusqu'à 15 cm de diamètre.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est fréquente dans toute la mer Méditerranée ainsi que dans l'ouest de l'océan Atlantique, jusqu'à 50 mètres de profondeur, sur les fonds durs et sombres, souvent sur des coraux.
 </t>
